--- a/biology/Botanique/Soleirolia/Soleirolia.xlsx
+++ b/biology/Botanique/Soleirolia/Soleirolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Soleirolia est un genre de plantes à fleurs de la famille des Urticaceae.
 Helxine est un genre synonyme, donc caduc, à Soleirolia. On trouve néanmoins l'appellation Helxine pour désigner Soleirolia soleirolii, Helxine étant de fait  l'ancien nom de genre de l'espèce.
-Cette unique espèce du genre, Soleirolia[1] tient son nom de Henri-Augustin Soleirol par Esprit Requien. Soleirol, un botaniste amateur, a collecté la plante en Corse.
+Cette unique espèce du genre, Soleirolia tient son nom de Henri-Augustin Soleirol par Esprit Requien. Soleirol, un botaniste amateur, a collecté la plante en Corse.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Soleirolia soleirolii (Req.) Dandy</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est utilisée comme plante d'intérieur. Résistante au gel, elle est parfois aussi utilisée comme couvre-sol dans les jardins, pouvant alors devenir localement envahissante (sur sol humifère humide à très humide, bas de mur humide…).
 </t>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Helxine Req.</t>
         </is>
